--- a/Summary_Output.xlsx
+++ b/Summary_Output.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:L10"/>
+  <dimension ref="B1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -585,7 +585,7 @@
     <row r="7">
       <c r="B7" s="5" t="inlineStr">
         <is>
-          <t>-A</t>
+          <t>-โปสเตอร์ ขนาด 80*120 ซม.</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="D7" s="5" t="inlineStr">
         <is>
-          <t>2 A</t>
+          <t>1 อัน</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
@@ -620,7 +620,7 @@
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
-          <t>2 A</t>
+          <t>1 อัน</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
@@ -631,91 +631,42 @@
       <c r="K7" s="5" t="inlineStr"/>
       <c r="L7" s="5" t="inlineStr"/>
     </row>
-    <row r="8">
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>-A</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>INV67000267</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>1 A</t>
-        </is>
-      </c>
-      <c r="E8" s="5" t="inlineStr">
+    <row r="9">
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>จ่ายไป ผศ.ดร.ศิริมา จิราราชะ</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>1 รก.</t>
+        </is>
+      </c>
+      <c r="G9" s="5" t="inlineStr">
         <is>
           <t>3,668.40</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G8" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H8" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I8" s="5" t="inlineStr">
-        <is>
-          <t>1 A</t>
-        </is>
-      </c>
-      <c r="J8" s="5" t="inlineStr">
-        <is>
-          <t>3,668.40</t>
-        </is>
-      </c>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="5" t="inlineStr">
-        <is>
-          <t>จ่ายไป ผศ.ดร.ศิริมา จิราราชะ</t>
-        </is>
-      </c>
-      <c r="C10" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D10" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E10" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F10" s="5" t="inlineStr">
-        <is>
-          <t>1 รก.</t>
-        </is>
-      </c>
-      <c r="G10" s="5" t="inlineStr">
-        <is>
-          <t>3,668.40</t>
-        </is>
-      </c>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-      <c r="L10" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="5" t="inlineStr"/>
+      <c r="J9" s="5" t="inlineStr"/>
+      <c r="K9" s="5" t="inlineStr"/>
+      <c r="L9" s="5" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Summary_Output.xlsx
+++ b/Summary_Output.xlsx
@@ -61,7 +61,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -69,12 +69,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -440,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:L9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,235 +464,246 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="3" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="12" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
-    <col width="10" customWidth="1" min="7" max="7"/>
-    <col width="12" customWidth="1" min="8" max="8"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
-    <col width="12" customWidth="1" min="10" max="10"/>
-    <col width="10" customWidth="1" min="11" max="11"/>
-    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="9" max="9"/>
+    <col width="10" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="15" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>บันทึกข้อความ</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="B2" s="1" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>ภาควิชาอุตสาหกรรมเกษตร</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>สรุปยอดปี 2567 ภาควิชาอุตสาหกรรมเกษตร</t>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>สรุปยอดพัสดุ</t>
         </is>
       </c>
     </row>
     <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>รายการ</t>
+        </is>
+      </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>รายการ</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
           <t>รับ</t>
         </is>
       </c>
-      <c r="D4" s="3" t="n"/>
-      <c r="E4" s="3" t="n"/>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="C4" s="2" t="n"/>
+      <c r="D4" s="2" t="n"/>
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>จ่าย</t>
         </is>
       </c>
-      <c r="G4" s="3" t="n"/>
-      <c r="H4" s="3" t="n"/>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="n"/>
+      <c r="G4" s="2" t="n"/>
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>คงเหลือ</t>
         </is>
       </c>
-      <c r="J4" s="3" t="n"/>
-      <c r="K4" s="3" t="n"/>
-      <c r="L4" s="3" t="n"/>
+      <c r="I4" s="2" t="n"/>
+      <c r="J4" s="2" t="n"/>
+      <c r="K4" s="2" t="n"/>
+      <c r="L4" s="2" t="n"/>
     </row>
     <row r="5">
-      <c r="B5" s="3" t="n"/>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="A5" s="2" t="n"/>
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>ใบรับที่</t>
         </is>
       </c>
-      <c r="D5" s="4" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>จำนวน</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>บาท</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>ใบรับที่</t>
         </is>
       </c>
-      <c r="G5" s="4" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
         <is>
           <t>จำนวน</t>
         </is>
       </c>
-      <c r="H5" s="4" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>บาท</t>
         </is>
       </c>
-      <c r="I5" s="4" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>จำนวน</t>
         </is>
       </c>
-      <c r="J5" s="4" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>บาท</t>
         </is>
       </c>
-      <c r="K5" s="4" t="inlineStr">
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>จำนวน</t>
         </is>
       </c>
-      <c r="L5" s="4" t="inlineStr">
+      <c r="K5" s="2" t="inlineStr">
         <is>
           <t>บาท</t>
         </is>
       </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>แหล่งที่มา</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>26-มี.ค.-67 รับจาก บจก.เอสซีเครื่องคลัง</t>
-        </is>
-      </c>
-      <c r="C6" s="6" t="n"/>
-      <c r="D6" s="6" t="n"/>
-      <c r="E6" s="6" t="n"/>
-      <c r="F6" s="6" t="n"/>
-      <c r="G6" s="6" t="n"/>
-      <c r="H6" s="6" t="n"/>
-      <c r="I6" s="6" t="n"/>
-      <c r="J6" s="6" t="n"/>
-      <c r="K6" s="6" t="n"/>
-      <c r="L6" s="6" t="n"/>
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>10 มิถุนายน 2568 รับจาก จี</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="n"/>
+      <c r="C6" s="4" t="n"/>
+      <c r="D6" s="4" t="n"/>
+      <c r="E6" s="4" t="n"/>
+      <c r="F6" s="4" t="n"/>
+      <c r="G6" s="4" t="n"/>
+      <c r="H6" s="4" t="n"/>
+      <c r="I6" s="4" t="n"/>
+      <c r="J6" s="4" t="n"/>
+      <c r="K6" s="4" t="n"/>
+      <c r="L6" s="4" t="n"/>
     </row>
     <row r="7">
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>-โปสเตอร์ ขนาด 80*120 ซม.</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>INV67000267</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>1 อัน</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>3,668.40</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G7" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H7" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I7" s="5" t="inlineStr">
-        <is>
-          <t>1 อัน</t>
-        </is>
-      </c>
-      <c r="J7" s="5" t="inlineStr">
-        <is>
-          <t>3,668.40</t>
-        </is>
-      </c>
-      <c r="K7" s="5" t="inlineStr"/>
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>-หก</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="inlineStr">
+        <is>
+          <t>1456</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr">
+        <is>
+          <t>5 น</t>
+        </is>
+      </c>
+      <c r="D7" s="7" t="n">
+        <v>47</v>
+      </c>
+      <c r="E7" s="6" t="inlineStr"/>
+      <c r="F7" s="6" t="inlineStr"/>
+      <c r="G7" s="7" t="inlineStr"/>
+      <c r="H7" s="6">
+        <f>C7-F7</f>
+        <v/>
+      </c>
+      <c r="I7" s="7">
+        <f>D7-G7</f>
+        <v/>
+      </c>
+      <c r="J7" s="6" t="inlineStr"/>
+      <c r="K7" s="8" t="inlineStr"/>
       <c r="L7" s="5" t="inlineStr"/>
     </row>
-    <row r="9">
-      <c r="B9" s="5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="9" t="inlineStr">
+        <is>
+          <t>รวม</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="n"/>
+      <c r="C8" s="4" t="n"/>
+      <c r="D8" s="10">
+        <f>SUM(D7:D7)</f>
+        <v/>
+      </c>
+      <c r="E8" s="4" t="n"/>
+      <c r="F8" s="4" t="n"/>
+      <c r="G8" s="10">
+        <f>SUM(G7:G7)</f>
+        <v/>
+      </c>
+      <c r="H8" s="4" t="n"/>
+      <c r="I8" s="10">
+        <f>SUM(I7:I7)</f>
+        <v/>
+      </c>
+      <c r="J8" s="4" t="n"/>
+      <c r="K8" s="4" t="n"/>
+      <c r="L8" s="4" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>จ่ายไป ผศ.ดร.ศิริมา จิราราชะ</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D9" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E9" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F9" s="5" t="inlineStr">
+      <c r="B10" s="4" t="n"/>
+      <c r="C10" s="4" t="n"/>
+      <c r="D10" s="4" t="n"/>
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>1 รก.</t>
         </is>
       </c>
-      <c r="G9" s="5" t="inlineStr">
-        <is>
-          <t>3,668.40</t>
-        </is>
-      </c>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
+      <c r="F10" s="4" t="n"/>
+      <c r="G10" s="10">
+        <f>G8</f>
+        <v/>
+      </c>
+      <c r="H10" s="4" t="n"/>
+      <c r="I10" s="4" t="n"/>
+      <c r="J10" s="4" t="n"/>
+      <c r="K10" s="4" t="n"/>
+      <c r="L10" s="4" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="B1:L1"/>
+  <mergeCells count="11">
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="H4:L4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Summary_Output.xlsx
+++ b/Summary_Output.xlsx
@@ -61,8 +61,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -72,25 +75,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -456,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,246 +459,435 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="12" customWidth="1" min="9" max="9"/>
-    <col width="10" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="15" customWidth="1" min="12" max="12"/>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>บันทึกข้อความ</t>
+          <t>เล่มที่.......... เลขที่...........</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>ภาควิชาอุตสาหกรรมเกษตร</t>
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>ชื่อ คณะเกษตรศาสตร์</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>สรุปยอดพัสดุ</t>
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>งบประมาณรายได้ปี 2568 ภาควิชาอุตสาหกรรมการเกษตร คณะเกษตรศาสตร์ฯ</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>วันที่</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>รายการ</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>รับ</t>
         </is>
       </c>
-      <c r="C4" s="2" t="n"/>
-      <c r="D4" s="2" t="n"/>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="D4" s="3" t="n"/>
+      <c r="E4" s="3" t="n"/>
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>จ่าย</t>
         </is>
       </c>
-      <c r="F4" s="2" t="n"/>
-      <c r="G4" s="2" t="n"/>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="G4" s="3" t="n"/>
+      <c r="H4" s="3" t="n"/>
+      <c r="I4" s="3" t="inlineStr">
         <is>
           <t>คงเหลือ</t>
         </is>
       </c>
-      <c r="I4" s="2" t="n"/>
-      <c r="J4" s="2" t="n"/>
-      <c r="K4" s="2" t="n"/>
-      <c r="L4" s="2" t="n"/>
+      <c r="J4" s="3" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n"/>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="3" t="n"/>
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>ใบรับที่</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>จำนวน</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr">
         <is>
           <t>บาท</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>ใบรับที่</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="G5" s="3" t="inlineStr">
         <is>
           <t>จำนวน</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="H5" s="3" t="inlineStr">
         <is>
           <t>บาท</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="I5" s="3" t="inlineStr">
         <is>
           <t>จำนวน</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr">
+      <c r="J5" s="3" t="inlineStr">
         <is>
           <t>บาท</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>จำนวน</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>บาท</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>แหล่งที่มา</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>10 มิถุนายน 2568 รับจาก จี</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="n"/>
-      <c r="C6" s="4" t="n"/>
-      <c r="D6" s="4" t="n"/>
-      <c r="E6" s="4" t="n"/>
-      <c r="F6" s="4" t="n"/>
-      <c r="G6" s="4" t="n"/>
-      <c r="H6" s="4" t="n"/>
-      <c r="I6" s="4" t="n"/>
-      <c r="J6" s="4" t="n"/>
-      <c r="K6" s="4" t="n"/>
-      <c r="L6" s="4" t="n"/>
+          <t>5-พ.ค. 68</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>รับจาก CP</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>011011</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>3 รก.</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>316</v>
+      </c>
+      <c r="F6" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G6" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H6" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I6" s="3" t="inlineStr">
+        <is>
+          <t>3 รก.</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>316</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>-หก</t>
-        </is>
-      </c>
-      <c r="B7" s="6" t="inlineStr">
-        <is>
-          <t>1456</t>
-        </is>
-      </c>
-      <c r="C7" s="6" t="inlineStr">
-        <is>
-          <t>5 น</t>
-        </is>
-      </c>
-      <c r="D7" s="7" t="n">
-        <v>47</v>
-      </c>
-      <c r="E7" s="6" t="inlineStr"/>
-      <c r="F7" s="6" t="inlineStr"/>
-      <c r="G7" s="7" t="inlineStr"/>
-      <c r="H7" s="6">
-        <f>C7-F7</f>
-        <v/>
-      </c>
-      <c r="I7" s="7">
-        <f>D7-G7</f>
-        <v/>
-      </c>
-      <c r="J7" s="6" t="inlineStr"/>
-      <c r="K7" s="8" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
+      <c r="A7" s="6" t="inlineStr"/>
+      <c r="B7" s="7" t="inlineStr">
+        <is>
+          <t>-แป้ง 1.0 ถง@35.00.-</t>
+        </is>
+      </c>
+      <c r="C7" s="8" t="inlineStr"/>
+      <c r="D7" s="8" t="inlineStr"/>
+      <c r="E7" s="8" t="inlineStr"/>
+      <c r="F7" s="8" t="inlineStr"/>
+      <c r="G7" s="8" t="inlineStr"/>
+      <c r="H7" s="8" t="inlineStr"/>
+      <c r="I7" s="8" t="inlineStr"/>
+      <c r="J7" s="8" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="9" t="inlineStr">
-        <is>
-          <t>รวม</t>
-        </is>
-      </c>
-      <c r="B8" s="4" t="n"/>
-      <c r="C8" s="4" t="n"/>
-      <c r="D8" s="10">
-        <f>SUM(D7:D7)</f>
-        <v/>
-      </c>
-      <c r="E8" s="4" t="n"/>
-      <c r="F8" s="4" t="n"/>
-      <c r="G8" s="10">
-        <f>SUM(G7:G7)</f>
-        <v/>
-      </c>
-      <c r="H8" s="4" t="n"/>
-      <c r="I8" s="10">
-        <f>SUM(I7:I7)</f>
-        <v/>
-      </c>
-      <c r="J8" s="4" t="n"/>
-      <c r="K8" s="4" t="n"/>
-      <c r="L8" s="4" t="n"/>
+      <c r="A8" s="6" t="inlineStr"/>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>-เนยสด 1.0 กอน@222.00.-</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr"/>
+      <c r="E8" s="8" t="inlineStr"/>
+      <c r="F8" s="8" t="inlineStr"/>
+      <c r="G8" s="8" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr"/>
+      <c r="J8" s="8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="inlineStr"/>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>-ไข่ไก่ 1.0 แพค@59.00.-</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr"/>
+      <c r="D9" s="8" t="inlineStr"/>
+      <c r="E9" s="8" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr"/>
+      <c r="J9" s="8" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>จ่ายไป ผศ.ดร.ศิริมา จิราราชะ</t>
-        </is>
-      </c>
-      <c r="B10" s="4" t="n"/>
-      <c r="C10" s="4" t="n"/>
-      <c r="D10" s="4" t="n"/>
-      <c r="E10" s="2" t="inlineStr">
+          <t>5-พ.ค. 68</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>รับจาก ฟินลี่แลนด์ พลาซ่า</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>INVPOS0668</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
         <is>
           <t>1 รก.</t>
         </is>
       </c>
-      <c r="F10" s="4" t="n"/>
-      <c r="G10" s="10">
-        <f>G8</f>
-        <v/>
-      </c>
-      <c r="H10" s="4" t="n"/>
-      <c r="I10" s="4" t="n"/>
-      <c r="J10" s="4" t="n"/>
-      <c r="K10" s="4" t="n"/>
-      <c r="L10" s="4" t="n"/>
+      <c r="E10" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="F10" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G10" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H10" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I10" s="3" t="inlineStr">
+        <is>
+          <t>4 รก.</t>
+        </is>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr"/>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>-น้ำตาลทรายขาว 1.0 ถง@77.00.-</t>
+        </is>
+      </c>
+      <c r="C11" s="8" t="inlineStr"/>
+      <c r="D11" s="8" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr"/>
+      <c r="I11" s="8" t="inlineStr"/>
+      <c r="J11" s="8" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>7-พ.ค. 68</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>รับจาก หจก. ศูนย์รวมแก้ว 2</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>NV2025050012</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>1 รก.</t>
+        </is>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>27</v>
+      </c>
+      <c r="F12" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G12" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H12" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I12" s="3" t="inlineStr">
+        <is>
+          <t>5 รก.</t>
+        </is>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="inlineStr"/>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>-น้ำตาลทรายขาว 1.0 ถง@27.00.-</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="8" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr"/>
+      <c r="G13" s="8" t="inlineStr"/>
+      <c r="H13" s="8" t="inlineStr"/>
+      <c r="I13" s="8" t="inlineStr"/>
+      <c r="J13" s="8" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>32-ธ.ค. 68</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>รับจาก ผมเอง</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>1 รก.</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G14" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H14" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I14" s="3" t="inlineStr">
+        <is>
+          <t>6 รก.</t>
+        </is>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="inlineStr"/>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>-บางสิ่งบางอย่าง 20.0 ชน@0.00.- = 0.00.-</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="inlineStr"/>
+      <c r="D15" s="8" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr"/>
+      <c r="F15" s="8" t="inlineStr"/>
+      <c r="G15" s="8" t="inlineStr"/>
+      <c r="H15" s="8" t="inlineStr"/>
+      <c r="I15" s="8" t="inlineStr"/>
+      <c r="J15" s="8" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr"/>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>จ่ายให้ ผศ.ดร.ศิริมา จิราราชะ</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="inlineStr"/>
+      <c r="D17" s="8" t="inlineStr"/>
+      <c r="E17" s="8" t="inlineStr"/>
+      <c r="F17" s="9" t="n"/>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>6 รก.</t>
+        </is>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>420</v>
+      </c>
+      <c r="I17" s="8" t="inlineStr"/>
+      <c r="J17" s="8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="E10:F10"/>
+  <mergeCells count="8">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B4:B5"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A2:J2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Summary_Output.xlsx
+++ b/Summary_Output.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,26 +571,26 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>5-พ.ค. 68</t>
+          <t>10 มิ.ย.68</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>รับจาก CP</t>
+          <t>รับจาก บริษัท สยามพัฒนา จำกัด</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>011011</t>
+          <t>INV_A_001</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>3 รก.</t>
+          <t>2 รก.</t>
         </is>
       </c>
       <c r="E6" s="5" t="n">
-        <v>316</v>
+        <v>145</v>
       </c>
       <c r="F6" s="6" t="inlineStr">
         <is>
@@ -609,18 +609,18 @@
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>3 รก.</t>
+          <t>2 รก.</t>
         </is>
       </c>
       <c r="J6" s="5" t="n">
-        <v>316</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="inlineStr"/>
       <c r="B7" s="7" t="inlineStr">
         <is>
-          <t>-แป้ง 1.0 ถง@35.00.-</t>
+          <t>-ปากกาเคมี 5.0 ด้าม@20.00.- = 100.00.-</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr"/>
@@ -636,7 +636,7 @@
       <c r="A8" s="6" t="inlineStr"/>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>-เนยสด 1.0 กอน@222.00.-</t>
+          <t>-กระดาษโน้ต 3.0 เล่ม@15.00.- = 45.00.-</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr"/>
@@ -649,74 +649,74 @@
       <c r="J8" s="8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="inlineStr"/>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>-ไข่ไก่ 1.0 แพค@59.00.-</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr"/>
-      <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
-      <c r="J9" s="8" t="inlineStr"/>
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>10 มิ.ย.68</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>รับจาก บริษัท สยามพัฒนา จำกัด</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>INV_A_002</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>2 รก.</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>275</v>
+      </c>
+      <c r="F9" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G9" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H9" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I9" s="3" t="inlineStr">
+        <is>
+          <t>4 รก.</t>
+        </is>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>420</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>5-พ.ค. 68</t>
-        </is>
-      </c>
-      <c r="B10" s="4" t="inlineStr">
-        <is>
-          <t>รับจาก ฟินลี่แลนด์ พลาซ่า</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>INVPOS0668</t>
-        </is>
-      </c>
-      <c r="D10" s="3" t="inlineStr">
-        <is>
-          <t>1 รก.</t>
-        </is>
-      </c>
-      <c r="E10" s="5" t="n">
-        <v>77</v>
-      </c>
-      <c r="F10" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H10" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I10" s="3" t="inlineStr">
-        <is>
-          <t>4 รก.</t>
-        </is>
-      </c>
-      <c r="J10" s="5" t="n">
-        <v>393</v>
-      </c>
+      <c r="A10" s="6" t="inlineStr"/>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>-แฟ้มเอกสาร 10.0 อัน@25.00.- = 250.00.-</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="inlineStr"/>
+      <c r="D10" s="8" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr"/>
+      <c r="I10" s="8" t="inlineStr"/>
+      <c r="J10" s="8" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="6" t="inlineStr"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>-น้ำตาลทรายขาว 1.0 ถง@77.00.-</t>
+          <t>-ยางลบ 5.0 ก้อน@5.00.- = 25.00.-</t>
         </is>
       </c>
       <c r="C11" s="8" t="inlineStr"/>
@@ -731,17 +731,17 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>7-พ.ค. 68</t>
+          <t>10 มิ.ย.68</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>รับจาก หจก. ศูนย์รวมแก้ว 2</t>
+          <t>รับจาก ร้านค้าส่งอุปกรณ์</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>NV2025050012</t>
+          <t>INV_B_001</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
@@ -750,7 +750,7 @@
         </is>
       </c>
       <c r="E12" s="5" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F12" s="6" t="inlineStr">
         <is>
@@ -773,14 +773,14 @@
         </is>
       </c>
       <c r="J12" s="5" t="n">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="inlineStr"/>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>-น้ำตาลทรายขาว 1.0 ถง@27.00.-</t>
+          <t>-เทปใส 2.0 ม้วน@10.00.- = 20.00.-</t>
         </is>
       </c>
       <c r="C13" s="8" t="inlineStr"/>
@@ -795,26 +795,26 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>32-ธ.ค. 68</t>
+          <t>10 มิ.ย.68</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>รับจาก ผมเอง</t>
+          <t>รับจาก ร้านค้าส่งอุปกรณ์</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>UNKNOWN</t>
+          <t>INV_B_002</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>1 รก.</t>
+          <t>2 รก.</t>
         </is>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="F14" s="6" t="inlineStr">
         <is>
@@ -833,18 +833,18 @@
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>6 รก.</t>
+          <t>7 รก.</t>
         </is>
       </c>
       <c r="J14" s="5" t="n">
-        <v>420</v>
+        <v>516</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="inlineStr"/>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>-บางสิ่งบางอย่าง 20.0 ชน@0.00.- = 0.00.-</t>
+          <t>-กาวแท่ง 5.0 แท่ง@8.00.- = 40.00.-</t>
         </is>
       </c>
       <c r="C15" s="8" t="inlineStr"/>
@@ -856,27 +856,379 @@
       <c r="I15" s="8" t="inlineStr"/>
       <c r="J15" s="8" t="inlineStr"/>
     </row>
+    <row r="16">
+      <c r="A16" s="6" t="inlineStr"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>-ไม้บรรทัด 3.0 อัน@12.00.- = 36.00.-</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="inlineStr"/>
+      <c r="D16" s="8" t="inlineStr"/>
+      <c r="E16" s="8" t="inlineStr"/>
+      <c r="F16" s="8" t="inlineStr"/>
+      <c r="G16" s="8" t="inlineStr"/>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr"/>
+      <c r="J16" s="8" t="inlineStr"/>
+    </row>
     <row r="17">
-      <c r="A17" s="6" t="inlineStr"/>
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>15 มิ.ย. 68</t>
+        </is>
+      </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>จ่ายให้ ผศ.ดร.ศิริมา จิราราชะ</t>
-        </is>
-      </c>
-      <c r="C17" s="8" t="inlineStr"/>
-      <c r="D17" s="8" t="inlineStr"/>
-      <c r="E17" s="8" t="inlineStr"/>
-      <c r="F17" s="9" t="n"/>
-      <c r="G17" s="3" t="inlineStr">
-        <is>
-          <t>6 รก.</t>
-        </is>
-      </c>
-      <c r="H17" s="5" t="n">
-        <v>420</v>
-      </c>
-      <c r="I17" s="8" t="inlineStr"/>
-      <c r="J17" s="8" t="inlineStr"/>
+          <t>รับจาก บริษัท วัสดุก่อสร้าง</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>INV_C_001</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>2 รก.</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>650</v>
+      </c>
+      <c r="F17" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G17" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H17" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I17" s="3" t="inlineStr">
+        <is>
+          <t>9 รก.</t>
+        </is>
+      </c>
+      <c r="J17" s="5" t="n">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="inlineStr"/>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>-หลอดไฟ LED 10.0 หลอด@45.00.- = 450.00.-</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="inlineStr"/>
+      <c r="D18" s="8" t="inlineStr"/>
+      <c r="E18" s="8" t="inlineStr"/>
+      <c r="F18" s="8" t="inlineStr"/>
+      <c r="G18" s="8" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr"/>
+      <c r="I18" s="8" t="inlineStr"/>
+      <c r="J18" s="8" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="inlineStr"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>-สายไฟ 1.0 ม้วน@200.00.-</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="inlineStr"/>
+      <c r="D19" s="8" t="inlineStr"/>
+      <c r="E19" s="8" t="inlineStr"/>
+      <c r="F19" s="8" t="inlineStr"/>
+      <c r="G19" s="8" t="inlineStr"/>
+      <c r="H19" s="8" t="inlineStr"/>
+      <c r="I19" s="8" t="inlineStr"/>
+      <c r="J19" s="8" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>15 มิ.ย. 68</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>รับจาก บริษัท สยามพัฒนา จำกัด</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>INV_D_001</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>1 รก.</t>
+        </is>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>350</v>
+      </c>
+      <c r="F20" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G20" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H20" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I20" s="3" t="inlineStr">
+        <is>
+          <t>10 รก.</t>
+        </is>
+      </c>
+      <c r="J20" s="5" t="n">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="inlineStr"/>
+      <c r="B21" s="7" t="inlineStr">
+        <is>
+          <t>-เม้าส์ไร้สาย 1.0 ชิ้น@350.00.-</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="inlineStr"/>
+      <c r="D21" s="8" t="inlineStr"/>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="8" t="inlineStr"/>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="8" t="inlineStr"/>
+      <c r="J21" s="8" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>15 มิ.ย. 68</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>รับจาก บริษัท สยามพัฒนา จำกัด</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>INV_D_099</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>1 รก.</t>
+        </is>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>350</v>
+      </c>
+      <c r="F22" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G22" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H22" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I22" s="3" t="inlineStr">
+        <is>
+          <t>11 รก.</t>
+        </is>
+      </c>
+      <c r="J22" s="5" t="n">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="inlineStr"/>
+      <c r="B23" s="7" t="inlineStr">
+        <is>
+          <t>-เม้าส์ไร้สาย 1.0 ชิ้น@350.00.-</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="inlineStr"/>
+      <c r="D23" s="8" t="inlineStr"/>
+      <c r="E23" s="8" t="inlineStr"/>
+      <c r="F23" s="8" t="inlineStr"/>
+      <c r="G23" s="8" t="inlineStr"/>
+      <c r="H23" s="8" t="inlineStr"/>
+      <c r="I23" s="8" t="inlineStr"/>
+      <c r="J23" s="8" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>20 มิ.ย. 68</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>รับจาก บริษัท อาหารสด</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>INV_F_001</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>1 รก.</t>
+        </is>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="F24" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G24" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H24" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I24" s="3" t="inlineStr">
+        <is>
+          <t>12 รก.</t>
+        </is>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr"/>
+      <c r="B25" s="7" t="inlineStr">
+        <is>
+          <t>-นมสด 6.0 กล่อง@30.00.- = 180.00.-</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="inlineStr"/>
+      <c r="D25" s="8" t="inlineStr"/>
+      <c r="E25" s="8" t="inlineStr"/>
+      <c r="F25" s="8" t="inlineStr"/>
+      <c r="G25" s="8" t="inlineStr"/>
+      <c r="H25" s="8" t="inlineStr"/>
+      <c r="I25" s="8" t="inlineStr"/>
+      <c r="J25" s="8" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>20 มิ.ย. 68</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>รับจาก ร้านค้าส่งอุปกรณ์</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>INV_E_001</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>1 รก.</t>
+        </is>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>216</v>
+      </c>
+      <c r="F26" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G26" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H26" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I26" s="3" t="inlineStr">
+        <is>
+          <t>13 รก.</t>
+        </is>
+      </c>
+      <c r="J26" s="5" t="n">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="inlineStr"/>
+      <c r="B27" s="7" t="inlineStr">
+        <is>
+          <t>-ปากกาเจล 12.0 ด้าม@18.00.- = 216.00.-</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="inlineStr"/>
+      <c r="D27" s="8" t="inlineStr"/>
+      <c r="E27" s="8" t="inlineStr"/>
+      <c r="F27" s="8" t="inlineStr"/>
+      <c r="G27" s="8" t="inlineStr"/>
+      <c r="H27" s="8" t="inlineStr"/>
+      <c r="I27" s="8" t="inlineStr"/>
+      <c r="J27" s="8" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="inlineStr"/>
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>จ่ายให้ นาย ก. (ผู้รับของ)</t>
+        </is>
+      </c>
+      <c r="C29" s="8" t="inlineStr"/>
+      <c r="D29" s="8" t="inlineStr"/>
+      <c r="E29" s="8" t="inlineStr"/>
+      <c r="F29" s="9" t="n"/>
+      <c r="G29" s="3" t="inlineStr">
+        <is>
+          <t>13 รก.</t>
+        </is>
+      </c>
+      <c r="H29" s="5" t="n">
+        <v>2262</v>
+      </c>
+      <c r="I29" s="8" t="inlineStr"/>
+      <c r="J29" s="8" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Summary_Output.xlsx
+++ b/Summary_Output.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,26 +571,26 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>10 มิ.ย.68</t>
+          <t>1 ก.พ. 67</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>รับจาก บริษัท สยามพัฒนา จำกัด</t>
+          <t>รับจาก บ.เอก-ชัย ดิสทริบิวชั่น</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>INV_A_001</t>
+          <t>255700</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>2 รก.</t>
+          <t>1 รก.</t>
         </is>
       </c>
       <c r="E6" s="5" t="n">
-        <v>145</v>
+        <v>69</v>
       </c>
       <c r="F6" s="6" t="inlineStr">
         <is>
@@ -609,18 +609,18 @@
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>2 รก.</t>
+          <t>1 รก.</t>
         </is>
       </c>
       <c r="J6" s="5" t="n">
-        <v>145</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="inlineStr"/>
       <c r="B7" s="7" t="inlineStr">
         <is>
-          <t>-ปากกาเคมี 5.0 ด้าม@20.00.- = 100.00.-</t>
+          <t>-แก้วมังกร 2.0 แพ็ค@34.50.- = 69.00.-</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr"/>
@@ -633,90 +633,122 @@
       <c r="J7" s="8" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="inlineStr"/>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>-กระดาษโน้ต 3.0 เล่ม@15.00.- = 45.00.-</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr"/>
-      <c r="D8" s="8" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr"/>
-      <c r="F8" s="8" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr"/>
-      <c r="I8" s="8" t="inlineStr"/>
-      <c r="J8" s="8" t="inlineStr"/>
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>12 ก.พ. 67</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>รับจาก บ.มิสเตอร์บีนไทย จก.</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>121/67</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>1 รก.</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>152</v>
+      </c>
+      <c r="F8" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G8" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H8" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I8" s="3" t="inlineStr">
+        <is>
+          <t>2 รก.</t>
+        </is>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>221</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>10 มิ.ย.68</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>รับจาก บริษัท สยามพัฒนา จำกัด</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>INV_A_002</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>2 รก.</t>
-        </is>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>275</v>
-      </c>
-      <c r="F9" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G9" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H9" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I9" s="3" t="inlineStr">
-        <is>
-          <t>4 รก.</t>
-        </is>
-      </c>
-      <c r="J9" s="5" t="n">
-        <v>420</v>
-      </c>
+      <c r="A9" s="6" t="inlineStr"/>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>-แผ่นฟองเต้าหู้ 10.0 แผ่น@15.20.- = 152.00.-</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr"/>
+      <c r="D9" s="8" t="inlineStr"/>
+      <c r="E9" s="8" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr"/>
+      <c r="J9" s="8" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="inlineStr"/>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>-แฟ้มเอกสาร 10.0 อัน@25.00.- = 250.00.-</t>
-        </is>
-      </c>
-      <c r="C10" s="8" t="inlineStr"/>
-      <c r="D10" s="8" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="8" t="inlineStr"/>
-      <c r="J10" s="8" t="inlineStr"/>
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>16 ก.พ. 67</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>รับจาก ร้าน CP PORK SHOP</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>เล่มที่ 8 เลขที่ 30</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>1 รก.</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>75.60000000000001</v>
+      </c>
+      <c r="F10" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G10" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H10" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I10" s="3" t="inlineStr">
+        <is>
+          <t>3 รก.</t>
+        </is>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>296.6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="inlineStr"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>-ยางลบ 5.0 ก้อน@5.00.- = 25.00.-</t>
+          <t>-สันในหมู 0.54 กิโลกรัม@140.00.-</t>
         </is>
       </c>
       <c r="C11" s="8" t="inlineStr"/>
@@ -728,507 +760,27 @@
       <c r="I11" s="8" t="inlineStr"/>
       <c r="J11" s="8" t="inlineStr"/>
     </row>
-    <row r="12">
-      <c r="A12" s="3" t="inlineStr">
-        <is>
-          <t>10 มิ.ย.68</t>
-        </is>
-      </c>
-      <c r="B12" s="4" t="inlineStr">
-        <is>
-          <t>รับจาก ร้านค้าส่งอุปกรณ์</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>INV_B_001</t>
-        </is>
-      </c>
-      <c r="D12" s="3" t="inlineStr">
-        <is>
-          <t>1 รก.</t>
-        </is>
-      </c>
-      <c r="E12" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="F12" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G12" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H12" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I12" s="3" t="inlineStr">
-        <is>
-          <t>5 รก.</t>
-        </is>
-      </c>
-      <c r="J12" s="5" t="n">
-        <v>440</v>
-      </c>
-    </row>
     <row r="13">
       <c r="A13" s="6" t="inlineStr"/>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>-เทปใส 2.0 ม้วน@10.00.- = 20.00.-</t>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>จ่ายให้ ผศ.ดร.ศิริมา จิราราชะ</t>
         </is>
       </c>
       <c r="C13" s="8" t="inlineStr"/>
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="8" t="inlineStr"/>
-      <c r="F13" s="8" t="inlineStr"/>
-      <c r="G13" s="8" t="inlineStr"/>
-      <c r="H13" s="8" t="inlineStr"/>
+      <c r="F13" s="9" t="n"/>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>3 รก.</t>
+        </is>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>296.6</v>
+      </c>
       <c r="I13" s="8" t="inlineStr"/>
       <c r="J13" s="8" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="inlineStr">
-        <is>
-          <t>10 มิ.ย.68</t>
-        </is>
-      </c>
-      <c r="B14" s="4" t="inlineStr">
-        <is>
-          <t>รับจาก ร้านค้าส่งอุปกรณ์</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>INV_B_002</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>2 รก.</t>
-        </is>
-      </c>
-      <c r="E14" s="5" t="n">
-        <v>76</v>
-      </c>
-      <c r="F14" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G14" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H14" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I14" s="3" t="inlineStr">
-        <is>
-          <t>7 รก.</t>
-        </is>
-      </c>
-      <c r="J14" s="5" t="n">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="6" t="inlineStr"/>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>-กาวแท่ง 5.0 แท่ง@8.00.- = 40.00.-</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="inlineStr"/>
-      <c r="D15" s="8" t="inlineStr"/>
-      <c r="E15" s="8" t="inlineStr"/>
-      <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr"/>
-      <c r="I15" s="8" t="inlineStr"/>
-      <c r="J15" s="8" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="6" t="inlineStr"/>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>-ไม้บรรทัด 3.0 อัน@12.00.- = 36.00.-</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="inlineStr"/>
-      <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="8" t="inlineStr"/>
-      <c r="F16" s="8" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr"/>
-      <c r="H16" s="8" t="inlineStr"/>
-      <c r="I16" s="8" t="inlineStr"/>
-      <c r="J16" s="8" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="inlineStr">
-        <is>
-          <t>15 มิ.ย. 68</t>
-        </is>
-      </c>
-      <c r="B17" s="4" t="inlineStr">
-        <is>
-          <t>รับจาก บริษัท วัสดุก่อสร้าง</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>INV_C_001</t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>2 รก.</t>
-        </is>
-      </c>
-      <c r="E17" s="5" t="n">
-        <v>650</v>
-      </c>
-      <c r="F17" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G17" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H17" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I17" s="3" t="inlineStr">
-        <is>
-          <t>9 รก.</t>
-        </is>
-      </c>
-      <c r="J17" s="5" t="n">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="6" t="inlineStr"/>
-      <c r="B18" s="7" t="inlineStr">
-        <is>
-          <t>-หลอดไฟ LED 10.0 หลอด@45.00.- = 450.00.-</t>
-        </is>
-      </c>
-      <c r="C18" s="8" t="inlineStr"/>
-      <c r="D18" s="8" t="inlineStr"/>
-      <c r="E18" s="8" t="inlineStr"/>
-      <c r="F18" s="8" t="inlineStr"/>
-      <c r="G18" s="8" t="inlineStr"/>
-      <c r="H18" s="8" t="inlineStr"/>
-      <c r="I18" s="8" t="inlineStr"/>
-      <c r="J18" s="8" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="6" t="inlineStr"/>
-      <c r="B19" s="7" t="inlineStr">
-        <is>
-          <t>-สายไฟ 1.0 ม้วน@200.00.-</t>
-        </is>
-      </c>
-      <c r="C19" s="8" t="inlineStr"/>
-      <c r="D19" s="8" t="inlineStr"/>
-      <c r="E19" s="8" t="inlineStr"/>
-      <c r="F19" s="8" t="inlineStr"/>
-      <c r="G19" s="8" t="inlineStr"/>
-      <c r="H19" s="8" t="inlineStr"/>
-      <c r="I19" s="8" t="inlineStr"/>
-      <c r="J19" s="8" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="inlineStr">
-        <is>
-          <t>15 มิ.ย. 68</t>
-        </is>
-      </c>
-      <c r="B20" s="4" t="inlineStr">
-        <is>
-          <t>รับจาก บริษัท สยามพัฒนา จำกัด</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>INV_D_001</t>
-        </is>
-      </c>
-      <c r="D20" s="3" t="inlineStr">
-        <is>
-          <t>1 รก.</t>
-        </is>
-      </c>
-      <c r="E20" s="5" t="n">
-        <v>350</v>
-      </c>
-      <c r="F20" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G20" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H20" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I20" s="3" t="inlineStr">
-        <is>
-          <t>10 รก.</t>
-        </is>
-      </c>
-      <c r="J20" s="5" t="n">
-        <v>1516</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="6" t="inlineStr"/>
-      <c r="B21" s="7" t="inlineStr">
-        <is>
-          <t>-เม้าส์ไร้สาย 1.0 ชิ้น@350.00.-</t>
-        </is>
-      </c>
-      <c r="C21" s="8" t="inlineStr"/>
-      <c r="D21" s="8" t="inlineStr"/>
-      <c r="E21" s="8" t="inlineStr"/>
-      <c r="F21" s="8" t="inlineStr"/>
-      <c r="G21" s="8" t="inlineStr"/>
-      <c r="H21" s="8" t="inlineStr"/>
-      <c r="I21" s="8" t="inlineStr"/>
-      <c r="J21" s="8" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="inlineStr">
-        <is>
-          <t>15 มิ.ย. 68</t>
-        </is>
-      </c>
-      <c r="B22" s="4" t="inlineStr">
-        <is>
-          <t>รับจาก บริษัท สยามพัฒนา จำกัด</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t>INV_D_099</t>
-        </is>
-      </c>
-      <c r="D22" s="3" t="inlineStr">
-        <is>
-          <t>1 รก.</t>
-        </is>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>350</v>
-      </c>
-      <c r="F22" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G22" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H22" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I22" s="3" t="inlineStr">
-        <is>
-          <t>11 รก.</t>
-        </is>
-      </c>
-      <c r="J22" s="5" t="n">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="6" t="inlineStr"/>
-      <c r="B23" s="7" t="inlineStr">
-        <is>
-          <t>-เม้าส์ไร้สาย 1.0 ชิ้น@350.00.-</t>
-        </is>
-      </c>
-      <c r="C23" s="8" t="inlineStr"/>
-      <c r="D23" s="8" t="inlineStr"/>
-      <c r="E23" s="8" t="inlineStr"/>
-      <c r="F23" s="8" t="inlineStr"/>
-      <c r="G23" s="8" t="inlineStr"/>
-      <c r="H23" s="8" t="inlineStr"/>
-      <c r="I23" s="8" t="inlineStr"/>
-      <c r="J23" s="8" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="inlineStr">
-        <is>
-          <t>20 มิ.ย. 68</t>
-        </is>
-      </c>
-      <c r="B24" s="4" t="inlineStr">
-        <is>
-          <t>รับจาก บริษัท อาหารสด</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>INV_F_001</t>
-        </is>
-      </c>
-      <c r="D24" s="3" t="inlineStr">
-        <is>
-          <t>1 รก.</t>
-        </is>
-      </c>
-      <c r="E24" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="F24" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G24" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H24" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I24" s="3" t="inlineStr">
-        <is>
-          <t>12 รก.</t>
-        </is>
-      </c>
-      <c r="J24" s="5" t="n">
-        <v>2046</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="6" t="inlineStr"/>
-      <c r="B25" s="7" t="inlineStr">
-        <is>
-          <t>-นมสด 6.0 กล่อง@30.00.- = 180.00.-</t>
-        </is>
-      </c>
-      <c r="C25" s="8" t="inlineStr"/>
-      <c r="D25" s="8" t="inlineStr"/>
-      <c r="E25" s="8" t="inlineStr"/>
-      <c r="F25" s="8" t="inlineStr"/>
-      <c r="G25" s="8" t="inlineStr"/>
-      <c r="H25" s="8" t="inlineStr"/>
-      <c r="I25" s="8" t="inlineStr"/>
-      <c r="J25" s="8" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="inlineStr">
-        <is>
-          <t>20 มิ.ย. 68</t>
-        </is>
-      </c>
-      <c r="B26" s="4" t="inlineStr">
-        <is>
-          <t>รับจาก ร้านค้าส่งอุปกรณ์</t>
-        </is>
-      </c>
-      <c r="C26" s="3" t="inlineStr">
-        <is>
-          <t>INV_E_001</t>
-        </is>
-      </c>
-      <c r="D26" s="3" t="inlineStr">
-        <is>
-          <t>1 รก.</t>
-        </is>
-      </c>
-      <c r="E26" s="5" t="n">
-        <v>216</v>
-      </c>
-      <c r="F26" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G26" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H26" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I26" s="3" t="inlineStr">
-        <is>
-          <t>13 รก.</t>
-        </is>
-      </c>
-      <c r="J26" s="5" t="n">
-        <v>2262</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="6" t="inlineStr"/>
-      <c r="B27" s="7" t="inlineStr">
-        <is>
-          <t>-ปากกาเจล 12.0 ด้าม@18.00.- = 216.00.-</t>
-        </is>
-      </c>
-      <c r="C27" s="8" t="inlineStr"/>
-      <c r="D27" s="8" t="inlineStr"/>
-      <c r="E27" s="8" t="inlineStr"/>
-      <c r="F27" s="8" t="inlineStr"/>
-      <c r="G27" s="8" t="inlineStr"/>
-      <c r="H27" s="8" t="inlineStr"/>
-      <c r="I27" s="8" t="inlineStr"/>
-      <c r="J27" s="8" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="6" t="inlineStr"/>
-      <c r="B29" s="4" t="inlineStr">
-        <is>
-          <t>จ่ายให้ นาย ก. (ผู้รับของ)</t>
-        </is>
-      </c>
-      <c r="C29" s="8" t="inlineStr"/>
-      <c r="D29" s="8" t="inlineStr"/>
-      <c r="E29" s="8" t="inlineStr"/>
-      <c r="F29" s="9" t="n"/>
-      <c r="G29" s="3" t="inlineStr">
-        <is>
-          <t>13 รก.</t>
-        </is>
-      </c>
-      <c r="H29" s="5" t="n">
-        <v>2262</v>
-      </c>
-      <c r="I29" s="8" t="inlineStr"/>
-      <c r="J29" s="8" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="8">
